--- a/databse_desain.xlsx
+++ b/databse_desain.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\alkahfi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D3FA998-3032-4BE3-9748-A9148EF26258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A94E947-F5F0-4889-BCE6-CAA2ADDA8E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A6E0AD42-10C8-444E-AF8C-1F03B2D082AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A6E0AD42-10C8-444E-AF8C-1F03B2D082AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="93">
   <si>
     <t>kelas</t>
   </si>
@@ -244,13 +239,403 @@
   </si>
   <si>
     <t>bigint</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id - integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name - string</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    country_id - integer</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user_id - integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title - string</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCA473F"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>Country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF055472"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCA473F"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>Model</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF055472"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF055472"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCA473F"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF055472"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0782B1"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>$this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCA473F"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>hasManyThrough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>'App\Post'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>'App\User'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>'country_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF93939E"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Foreign key on users table...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>'user_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF93939E"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Foreign key on posts table...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>'id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF93939E"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Local key on countries table...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF669900"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>'id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF090910"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF93939E"/>
+        <rFont val="Source-code-pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Local key on users table...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +671,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF090910"/>
+      <name val="Source-code-pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF055472"/>
+      <name val="Source-code-pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCA473F"/>
+      <name val="Source-code-pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0782B1"/>
+      <name val="Source-code-pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF669900"/>
+      <name val="Source-code-pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF93939E"/>
+      <name val="Source-code-pro"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFBFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,11 +833,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -431,6 +855,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,11 +1186,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B35DA05-0E54-407C-9E17-11C79EB0D3DF}">
   <dimension ref="A3:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
@@ -760,716 +1199,716 @@
     <col min="9" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="5"/>
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="9"/>
+      <c r="I9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="J9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="I10" s="7" t="s">
+      <c r="C10" s="9"/>
+      <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="8" t="s">
+      <c r="J10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="E37" s="1" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="E37" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="I37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="3"/>
+      <c r="E38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="I38" s="2" t="s">
+      <c r="G38" s="3"/>
+      <c r="I38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="E39" s="5" t="s">
+      <c r="C39" s="5"/>
+      <c r="E39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="I39" s="15" t="s">
+      <c r="G39" s="5"/>
+      <c r="I39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="E40" s="5" t="s">
+      <c r="C40" s="5"/>
+      <c r="E40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="I40" s="5" t="s">
+      <c r="G40" s="5"/>
+      <c r="I40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="E41" s="15" t="s">
+      <c r="C41" s="5"/>
+      <c r="E41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="K41" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="5"/>
+      <c r="E42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="I42" s="5" t="s">
+      <c r="F42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="I42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="E43" s="7" t="s">
+      <c r="B43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="I43" s="5" t="s">
+      <c r="F43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="I43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="E44" s="8" t="s">
+      <c r="B44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="E44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="I44" s="5" t="s">
+      <c r="G44" s="9"/>
+      <c r="I44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="I45" s="5" t="s">
+      <c r="C45" s="9"/>
+      <c r="I45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I46" s="7" t="s">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="I46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="7" t="s">
+      <c r="J46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="I47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I48" s="8" t="s">
+      <c r="J47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="I48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="E52" s="1" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="E52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="3"/>
+      <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="E54" s="15" t="s">
+      <c r="C54" s="5"/>
+      <c r="E54" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="E55" s="5" t="s">
+      <c r="C55" s="5"/>
+      <c r="E55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="E56" s="7" t="s">
+      <c r="B56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="E56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="F56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="E57" s="7" t="s">
+      <c r="B57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="E57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="F57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="E58" s="8" t="s">
+      <c r="C58" s="9"/>
+      <c r="E58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="12"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="C60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1486,4 +1925,402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FB0179-44CE-48B5-8320-F2FD03FAEFAE}">
+  <dimension ref="F3:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:27">
+      <c r="K3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="6:27">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="Y4" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="6:27">
+      <c r="K5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="6:27">
+      <c r="K6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="Y6" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="6:27">
+      <c r="K7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="6:27">
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="6:27">
+      <c r="K9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="6:27">
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="6:27">
+      <c r="V11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA11" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="6:27">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="6:27">
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="P13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="6:27">
+      <c r="H14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="6:27">
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="6:27">
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="P16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22">
+      <c r="H17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22">
+      <c r="H18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="P18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="V18" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22">
+      <c r="H19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="P19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="V19" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22">
+      <c r="H20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="P20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="V20" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22">
+      <c r="P21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="V21" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22">
+      <c r="P22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="V22" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22">
+      <c r="P23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22">
+      <c r="P24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="8:22">
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="8:22">
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="8:22">
+      <c r="V27" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="8:22">
+      <c r="V28" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="8:22">
+      <c r="V29" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="8:22">
+      <c r="V30" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="8:22">
+      <c r="V31" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>